--- a/Modelos em Python/0 dia a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dia a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3848100578643278</v>
+        <v>0.4266398961778736</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364533366964133</v>
+        <v>1.498510558328593</v>
       </c>
       <c r="D11" t="n">
-        <v>2.515369409436242</v>
+        <v>2.536106437672724</v>
       </c>
     </row>
     <row r="12">
